--- a/Documentação/Definição de Arquitetura/Definicao de Arquitetura v1.xlsx
+++ b/Documentação/Definição de Arquitetura/Definicao de Arquitetura v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Área de Trabalho/SmartTools/grupoPi3Semestre/Documentação/Definição de Arquitetura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/bruna_martins_b_melo_accenture_com/Documents/Desktop/SMART TOOLS/grupoPi3Semestre/Documentação/Definição de Arquitetura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF93159B-FDF5-49CA-9453-0753108DE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{BF93159B-FDF5-49CA-9453-0753108DE4C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF5A74D-177C-4CFA-8B7F-36F56BCD2494}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guia de Engenharia v4" sheetId="3" r:id="rId1"/>
@@ -267,59 +267,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -338,26 +289,21 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -370,94 +316,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,259 +641,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036DB22A-6FFA-4CD0-A3AA-AF0DD32AFF0D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56" style="27"/>
+    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="45.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56" style="7"/>
     <col min="5" max="16384" width="56" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="27" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1000,7 +898,7 @@
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/Definição de Arquitetura/Definicao de Arquitetura v1.xlsx
+++ b/Documentação/Definição de Arquitetura/Definicao de Arquitetura v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valemobibr-my.sharepoint.com/personal/vinicius_cano_valemobi_com_br/Documents/Área de Trabalho/SmartTools/grupoPi3Semestre/Documentação/Definição de Arquitetura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF93159B-FDF5-49CA-9453-0753108DE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{BF93159B-FDF5-49CA-9453-0753108DE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D745FB67-51A4-4958-BF4D-A4BBE69D81A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guia de Engenharia v4" sheetId="3" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -370,12 +378,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -411,15 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,14 +447,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,256 +763,256 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56" style="27"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="23" customWidth="1"/>
     <col min="5" max="16384" width="56" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="19"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
